--- a/test queires .xlsx
+++ b/test queires .xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UCL search engine" sheetId="1" r:id="rId1"/>
+    <sheet name="Google " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="187">
   <si>
     <t>Query</t>
   </si>
@@ -387,13 +388,214 @@
   </si>
   <si>
     <t>http://www.ucl.ac.uk/careers/specialistsupport/researchers</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/isd/services/get-connected/wireless/eduroam?utm_source=student-induction&amp;utm_medium=pocket-guide&amp;utm_campaign=IT-essentials-pocket-guide-1516</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/isd/services/get-connected/wireless</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/isd/services/get-connected/wireless/uclguest</t>
+  </si>
+  <si>
+    <t>http://uclu.org/</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/prospective-students/graduate/life/services-facilities/students-union</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/prospective-students/undergraduate/degrees/medicine-mbbs-bsc/</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/prospective-students/undergraduate/degrees/psychology-bsc/</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/medicalschool/staff-students/course-information</t>
+  </si>
+  <si>
+    <t>http://www.cs.ucl.ac.uk/research/</t>
+  </si>
+  <si>
+    <t>http://sec.cs.ucl.ac.uk/people/m_angela_sasse/</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/library/subject-support/guides/computer-science</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/news</t>
+  </si>
+  <si>
+    <t>https://www.laws.ucl.ac.uk/</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/prospective-students/undergraduate/</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/prospective-students/international</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/library</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/library/electronic-resources</t>
+  </si>
+  <si>
+    <t>http://library.ucl.ac.uk/F</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/isd/services/email-calendar</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/isd/live_login</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/isd/how-to/email-calendar/connect-to-owa</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/finance/fba-teams/research-services</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/finance/fba-teams/research-services/research-contracts</t>
+  </si>
+  <si>
+    <t>https://www.uhttp://www.ucl.ac.uk/lifesciences-faculty/homepagecl.ac.uk/teaching-learning/files/uclstudentexperiencesurvey2017pdf</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/slms</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/history/people</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/prospective-students/undergraduate/degrees/history-ba/</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/prospective-students/undergraduate/degrees/</t>
+  </si>
+  <si>
+    <t>www.ucl.ac.uk/prospective-students/graduate/</t>
+  </si>
+  <si>
+    <t>https://iris.ucl.ac.uk/iris/browse/profile?upi=APARK85</t>
+  </si>
+  <si>
+    <t>https://iris.ucl.ac.uk/iris/browse/profile?upi=ADPAR32</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/estates/news/a-z-services/p_list/parking</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/research</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/research/news</t>
+  </si>
+  <si>
+    <t>www.ucl.ac.uk/student-accommodation/online-services/</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/residences</t>
+  </si>
+  <si>
+    <t>www.ucl.ac.uk/lifelearning</t>
+  </si>
+  <si>
+    <t>www.ucl.ac.uk/lifelearning/courses</t>
+  </si>
+  <si>
+    <t>onlinestore.ucl.ac.uk/short-courses</t>
+  </si>
+  <si>
+    <t>www.cs.ucl.ac.uk/</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/prospective-students/undergraduate/degrees/computer-science-bsc/</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/prospective-students/graduate/taught/degrees/computer-science-msc</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/srs/governance-and-committees/committees/stec</t>
+  </si>
+  <si>
+    <t>www.ucl.ac.uk/new-students/left-menu/experience-ucl</t>
+  </si>
+  <si>
+    <t>www.ucl.ac.uk/new-students</t>
+  </si>
+  <si>
+    <t>www.ucl.ac.uk/</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/about/why/rankings</t>
+  </si>
+  <si>
+    <t>https://www.topuniversities.com/universities/ucl-university-college-london</t>
+  </si>
+  <si>
+    <t>https://interfase.thecareersgroup.co.uk/collegelogins/LoginUCL.aspx</t>
+  </si>
+  <si>
+    <t>en.parkopedia.co.uk/parking/school/university-college-london/</t>
+  </si>
+  <si>
+    <t>www.cs.ucl.ac.uk/students/syllabus/pg/</t>
+  </si>
+  <si>
+    <t>www.cs.ucl.ac.uk/degrees/msc_ml/</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/prospective-students/graduate/taught/degrees/machine-learning-msc</t>
+  </si>
+  <si>
+    <t>www0.cs.ucl.ac.uk/people/G.Livan.html</t>
+  </si>
+  <si>
+    <t>web4.cs.ucl.ac.uk/staff/jun.wang/blog/</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/library/opening</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/staff/term-dates</t>
+  </si>
+  <si>
+    <t>https://moodle.ucl.ac.uk/login/</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/prospective-students/accommodation/application/frequently-asked-questions</t>
+  </si>
+  <si>
+    <t>www.ucl.ac.uk/portico/</t>
+  </si>
+  <si>
+    <t>www.cs.ucl.ac.uk/contacts/</t>
+  </si>
+  <si>
+    <t>www.ucl.ac.uk/isd/wireless</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/prospective-students/graduate/apply</t>
+  </si>
+  <si>
+    <t>www.ucl.ac.uk/maps/</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/prospective-students/widening-participation/openday</t>
+  </si>
+  <si>
+    <t>http://www.ucl.ac.uk/hr/staff/hr_staff_contacts.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -408,8 +610,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,8 +657,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -458,22 +693,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -751,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,434 +1078,434 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1204,4 +1516,463 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="221.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="156.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="125.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="153.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>